--- a/MIT-15.071x/Unit8-Linear.Optimization/GoogleAdWords_Greedy.xlsx
+++ b/MIT-15.071x/Unit8-Linear.Optimization/GoogleAdWords_Greedy.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\edx\MIT-15.071x\Unit8-Linear.Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="15200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="12150" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Google AdWords – Recitation – Greedy Solution</t>
   </si>
@@ -100,17 +105,37 @@
   </si>
   <si>
     <t>Query estimates not exceeded</t>
+  </si>
+  <si>
+    <t>V-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,25 +143,41 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -268,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -340,12 +381,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -673,13 +734,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -691,7 +752,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -701,7 +762,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -713,7 +774,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1">
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -731,7 +792,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -749,7 +810,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -767,7 +828,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="16" thickBot="1">
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -785,7 +846,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -795,7 +856,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
@@ -807,7 +868,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -825,7 +886,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -843,7 +904,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -861,7 +922,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1">
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -879,7 +940,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -889,7 +950,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="16" thickBot="1">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
@@ -901,7 +962,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1">
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -919,17 +980,17 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="28">
         <v>0.5</v>
       </c>
       <c r="C17" s="2">
         <v>0.5</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="27">
         <v>1.6</v>
       </c>
       <c r="E17" s="2"/>
@@ -937,17 +998,17 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="28">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="28">
         <v>0.75</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="27">
         <v>2</v>
       </c>
       <c r="E18" s="2"/>
@@ -955,17 +1016,17 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1">
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="25">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="25">
         <v>4</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="26">
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
@@ -973,7 +1034,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -983,7 +1044,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1056,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1">
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1070,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1023,7 +1084,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1098,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1">
+    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1112,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1061,7 +1122,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1">
+    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1134,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="31" thickBot="1">
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1148,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -1101,7 +1162,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>2</v>
       </c>
@@ -1115,7 +1176,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="16" thickBot="1">
+    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -1129,7 +1190,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1139,7 +1200,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="16" thickBot="1">
+    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1212,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="31" thickBot="1">
+    <row r="34" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -1175,43 +1236,57 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2">
+        <f>160/5</f>
+        <v>32</v>
+      </c>
+      <c r="H35" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="16" thickBot="1">
+      <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="2">
+        <f>100/2</f>
+        <v>50</v>
+      </c>
+      <c r="H36" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>8</v>
       </c>
@@ -1222,24 +1297,38 @@
         <v>0</v>
       </c>
       <c r="D37" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="2">
+        <f>4/1</f>
+        <v>4</v>
+      </c>
+      <c r="H37" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2">
+        <f>170/0.5</f>
+        <v>340</v>
+      </c>
+      <c r="H38" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,17 +1336,24 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="F39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2">
+        <f>102/0.5</f>
+        <v>204</v>
+      </c>
+      <c r="H39" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="2">
         <f>SUMPRODUCT(B35:D37,B17:D19)</f>
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1266,7 +1362,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1276,7 +1372,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1384,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1298,7 +1394,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>23</v>
       </c>
@@ -1312,13 +1408,13 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="2">
         <f>SUMPRODUCT(B35:D35,B17:D17)</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>25</v>
@@ -1328,19 +1424,19 @@
       </c>
       <c r="E45" s="2">
         <f>D45-B45</f>
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" s="22" customFormat="1">
+    <row r="46" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="21">
         <f>SUMPRODUCT(B36:D36,B18:D18)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>25</v>
@@ -1350,19 +1446,19 @@
       </c>
       <c r="E46" s="21">
         <f>D46-B46</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="2">
         <f>SUMPRODUCT(B37:D37,B19:D19)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>25</v>
@@ -1372,13 +1468,13 @@
       </c>
       <c r="E47" s="2">
         <f>D47-B47</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1388,7 +1484,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>26</v>
       </c>
@@ -1402,13 +1498,13 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2">
         <f>SUM(B35:B37)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>25</v>
@@ -1418,19 +1514,19 @@
       </c>
       <c r="E50" s="2">
         <f>D50-B50</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="2">
         <f>SUM(C35:C37)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>25</v>
@@ -1440,19 +1536,19 @@
       </c>
       <c r="E51" s="2">
         <f>D51-B51</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="2">
         <f>SUM(D35:D37)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>25</v>
@@ -1462,7 +1558,7 @@
       </c>
       <c r="E52" s="2">
         <f>D52-B52</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -1479,6 +1575,7 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A42:B42"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
